--- a/frontend/public/staff_data.xlsx
+++ b/frontend/public/staff_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Campus_Flow\cms\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Campus_Flow\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4200BA-B074-47CD-A286-05E486680C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F0235C-B352-4705-9AF6-31BEA30690FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>_id</t>
   </si>
@@ -43,19 +43,76 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>O.S</t>
-  </si>
-  <si>
-    <t>neerajnambiar58@gmail.com</t>
-  </si>
-  <si>
-    <t>Neeraj Nambiar</t>
-  </si>
-  <si>
     <t>TYBCA</t>
   </si>
   <si>
     <t>Staff_name</t>
+  </si>
+  <si>
+    <t>sandeeprpatel58@gmail.com</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>shashankjvyas78@gmail.com</t>
+  </si>
+  <si>
+    <t>hiteshvjoshi587@gmail.com</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Unix</t>
+  </si>
+  <si>
+    <t>rinicherian651@gmail.com</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ASP.NET</t>
+  </si>
+  <si>
+    <t>Dr.Sandeep Sir Patel</t>
+  </si>
+  <si>
+    <t>Dr.Shashank Sir Vyas</t>
+  </si>
+  <si>
+    <t>Dr.Hitesh Sir Joshi</t>
+  </si>
+  <si>
+    <t>Dr.Rini Mam Cherian</t>
+  </si>
+  <si>
+    <t>Dr.Hiral Mam Varma</t>
+  </si>
+  <si>
+    <t>hiralvarma561@gmail.com</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Dr.Shyam Sir Patel</t>
+  </si>
+  <si>
+    <t>shyamrgoti571@gmail.com</t>
+  </si>
+  <si>
+    <t>Et &amp; IT</t>
   </si>
 </sst>
 </file>
@@ -408,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -428,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -451,27 +508,147 @@
         <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>8274143644</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>412</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>9365214569</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>8654129832</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>451</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>9562134589</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>623</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>8654123658</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>852</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>9531256825</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{7DBE9FD6-472B-48CD-8D9C-4C09764B213E}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{5EC64420-9F5D-4D6E-88ED-A10D30D2D3B4}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{65A8D19B-55EC-4E39-A36D-DCF68CDB8A84}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{7C7E71EE-6C40-4C66-B9C6-F8E2C3C0143A}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{320201C3-FF54-41F1-82A3-D31A448C7632}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{87721134-E926-4172-9C41-42368C98CADE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
